--- a/Results/AllData.xlsx
+++ b/Results/AllData.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="LinearOutput" sheetId="1" r:id="rId1"/>
-    <sheet name="CircularOutput" sheetId="2" r:id="rId2"/>
-    <sheet name="2B" sheetId="3" r:id="rId3"/>
-    <sheet name="CircularOutput Data" sheetId="5" r:id="rId4"/>
-    <sheet name="LinearOutput Data" sheetId="6" r:id="rId5"/>
-    <sheet name="2B Data" sheetId="4" r:id="rId6"/>
+    <sheet name="LinearRegVsLinear2B" sheetId="7" r:id="rId1"/>
+    <sheet name="LinearOutput" sheetId="1" r:id="rId2"/>
+    <sheet name="CircularOutput" sheetId="2" r:id="rId3"/>
+    <sheet name="2B" sheetId="3" r:id="rId4"/>
+    <sheet name="CircularOutput Data" sheetId="5" r:id="rId5"/>
+    <sheet name="LinearOutput Data" sheetId="6" r:id="rId6"/>
+    <sheet name="2B Data" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -166,8 +167,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Circular Output X, Y, Z Direction</a:t>
+              <a:t>Linear</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Output vs. CBS Enchancement Factor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -210,6 +216,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>VB*l (rad)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -236,7 +245,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CircularOutput!$A$3:$A$13</c:f>
+              <c:f>'2B'!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -278,42 +287,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CircularOutput!$J$3:$J$13</c:f>
+              <c:f>'2B'!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.674784056613591</c:v>
+                  <c:v>1.67675339954354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.611217420817777</c:v>
+                  <c:v>1.557162994901687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.552369794735638</c:v>
+                  <c:v>1.486302314674318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.508376813851465</c:v>
+                  <c:v>1.441727687374808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.475062044007669</c:v>
+                  <c:v>1.410933614961789</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.448745549391405</c:v>
+                  <c:v>1.387792638658495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.427760498586786</c:v>
+                  <c:v>1.369772367910737</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.411272546645556</c:v>
+                  <c:v>1.355523226910457</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.397646300177334</c:v>
+                  <c:v>1.34359351782412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.385455269808729</c:v>
+                  <c:v>1.333407522813265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.375262482060578</c:v>
+                  <c:v>1.324573920694734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,6 +332,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>V2B*l (rad)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -349,7 +361,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CircularOutput!$A$3:$A$13</c:f>
+              <c:f>LinearOutput!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -391,155 +403,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CircularOutput!$J$15:$J$25</c:f>
+              <c:f>LinearOutput!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.673548232810516</c:v>
+                  <c:v>1.677246343353726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.607394808077246</c:v>
+                  <c:v>1.613711555712839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.542268600231275</c:v>
+                  <c:v>1.5563849463729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.492450348245016</c:v>
+                  <c:v>1.512176596347953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.454984124856537</c:v>
+                  <c:v>1.478748240748406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.425211296206822</c:v>
+                  <c:v>1.452314383348866</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.401792922294651</c:v>
+                  <c:v>1.431789255586799</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.382513400959895</c:v>
+                  <c:v>1.413993368562843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3662176439514</c:v>
+                  <c:v>1.399575988017053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.352401334263687</c:v>
+                  <c:v>1.38748318413579</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.341179164370484</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>CircularOutput!$A$3:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>CircularOutput!$J$27:$J$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.423897730019924</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.389172610168357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.366424588884343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.347405988401081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.332390834195888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.320039040283112</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.310563800724878</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.301827770057121</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.294841958278678</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.288585089848002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.283401840041335</c:v>
+                  <c:v>1.377275836914576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,13 +453,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="864185280"/>
-        <c:axId val="864187328"/>
+        <c:axId val="-1078953568"/>
+        <c:axId val="-1078952208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="864185280"/>
+        <c:axId val="-1078953568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -614,15 +514,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864187328"/>
+        <c:crossAx val="-1078952208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="864187328"/>
+        <c:axId val="-1078952208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.28"/>
+          <c:min val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -640,7 +540,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -677,7 +576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="864185280"/>
+        <c:crossAx val="-1078953568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -788,16 +687,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LinearOutput</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> in the X, Y, Z Direction</a:t>
+              <a:t>Circular Output X, Y, Z Direction</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -862,7 +756,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:f>CircularOutput!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -904,42 +798,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LinearOutput!$J$3:$J$13</c:f>
+              <c:f>CircularOutput!$J$3:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.677246343353726</c:v>
+                  <c:v>1.674784056613591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.613711555712839</c:v>
+                  <c:v>1.611217420817777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5563849463729</c:v>
+                  <c:v>1.552369794735638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.512176596347953</c:v>
+                  <c:v>1.508376813851465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.478748240748406</c:v>
+                  <c:v>1.475062044007669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.452314383348866</c:v>
+                  <c:v>1.448745549391405</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.431789255586799</c:v>
+                  <c:v>1.427760498586786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.413993368562843</c:v>
+                  <c:v>1.411272546645556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.399575988017053</c:v>
+                  <c:v>1.397646300177334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.38748318413579</c:v>
+                  <c:v>1.385455269808729</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.377275836914576</c:v>
+                  <c:v>1.375262482060578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -975,7 +869,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:f>CircularOutput!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1017,42 +911,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LinearOutput!$J$15:$J$25</c:f>
+              <c:f>CircularOutput!$J$15:$J$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.676848451424489</c:v>
+                  <c:v>1.673548232810516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.609458711280768</c:v>
+                  <c:v>1.607394808077246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.543519450324461</c:v>
+                  <c:v>1.542268600231275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.492938353323659</c:v>
+                  <c:v>1.492450348245016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.455050009641423</c:v>
+                  <c:v>1.454984124856537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.425019430459959</c:v>
+                  <c:v>1.425211296206822</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.400453047527818</c:v>
+                  <c:v>1.401792922294651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.381045858841333</c:v>
+                  <c:v>1.382513400959895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.365514343846332</c:v>
+                  <c:v>1.3662176439514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.351364009895299</c:v>
+                  <c:v>1.352401334263687</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.339374781832991</c:v>
+                  <c:v>1.341179164370484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,7 +982,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:f>CircularOutput!$A$3:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1130,42 +1024,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LinearOutput!$J$27:$J$37</c:f>
+              <c:f>CircularOutput!$J$27:$J$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.675739044760483</c:v>
+                  <c:v>1.423897730019924</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.609003629794146</c:v>
+                  <c:v>1.389172610168357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.548664419356402</c:v>
+                  <c:v>1.366424588884343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.500046758590592</c:v>
+                  <c:v>1.347405988401081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.463742032245969</c:v>
+                  <c:v>1.332390834195888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.434483429715302</c:v>
+                  <c:v>1.320039040283112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.411479342196339</c:v>
+                  <c:v>1.310563800724878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.392398049066092</c:v>
+                  <c:v>1.301827770057121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.376526341760897</c:v>
+                  <c:v>1.294841958278678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.36363674524817</c:v>
+                  <c:v>1.288585089848002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.352310678721274</c:v>
+                  <c:v>1.283401840041335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,79 +1074,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="829656960"/>
-        <c:axId val="829791776"/>
+        <c:axId val="-1078904336"/>
+        <c:axId val="-1078902272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="829656960"/>
+        <c:axId val="-1078904336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="829791776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="829791776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1.33"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1303,7 +1134,70 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="829656960"/>
+        <c:crossAx val="-1078902272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1078902272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.28"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1078904336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,7 +1211,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1414,6 +1307,631 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>LinearOutput</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in the X, Y, Z Direction</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LinearOutput!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.677246343353726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.613711555712839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5563849463729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.512176596347953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.478748240748406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.452314383348866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.431789255586799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.413993368562843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.399575988017053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38748318413579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.377275836914576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LinearOutput!$J$15:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.676848451424489</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.609458711280768</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.543519450324461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.492938353323659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.455050009641423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.425019430459959</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.400453047527818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.381045858841333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.365514343846332</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.351364009895299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.339374781832991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LinearOutput!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LinearOutput!$J$27:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.675739044760483</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.609003629794146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.548664419356402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.500046758590592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.463742032245969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.434483429715302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.411479342196339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.392398049066092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.376526341760897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.36363674524817</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.352310678721274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1078865088"/>
+        <c:axId val="-1078862608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1078865088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1078862608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1078862608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.33"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1078865088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Twice</a:t>
             </a:r>
             <a:r>
@@ -1423,7 +1941,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,11 +2323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="868102176"/>
-        <c:axId val="868104224"/>
+        <c:axId val="-1177840112"/>
+        <c:axId val="-1177838288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="868102176"/>
+        <c:axId val="-1177840112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,12 +2383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868104224"/>
+        <c:crossAx val="-1177838288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="868104224"/>
+        <c:axId val="-1177838288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.28"/>
@@ -1892,6 +2409,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1928,7 +2446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="868102176"/>
+        <c:crossAx val="-1177840112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1942,7 +2460,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2124,6 +2641,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3672,11 +4229,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="155" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3698,6 +4771,17 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3709,7 +4793,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669461" cy="6281557"/>
+    <xdr:ext cx="8676968" cy="6292645"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3760,6 +4844,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8669461" cy="6281557"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4052,7 +5163,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:J2"/>
+      <selection activeCell="J3" activeCellId="1" sqref="A3:A13 J3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5191,8 +6302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6332,7 +7443,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J27" activeCellId="3" sqref="A3:A13 J3:J13 J15:J25 J27:J37"/>
+      <selection activeCell="J3" activeCellId="1" sqref="E16 J3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
